--- a/app/automations/a2/downloads/commercial_template.xlsx
+++ b/app/automations/a2/downloads/commercial_template.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -31,15 +31,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="168" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="169" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,9 +242,6 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -363,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="102">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -1607,12 +1602,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1620,7 +1609,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2392,16 +2381,6 @@
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2540,8 +2519,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Annexes"/>
     </sheetNames>
@@ -2553,8 +2532,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2630,8 +2609,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2667,8 +2646,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2704,8 +2683,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2745,8 +2724,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2822,8 +2801,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2863,8 +2842,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2904,8 +2883,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -2945,8 +2924,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -3022,8 +3001,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -3099,8 +3078,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUME FEES MC"/>
       <sheetName val="RESUME FEES BA"/>
@@ -3442,4429 +3421,2926 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU43"/>
+  <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="3.6640625" customWidth="1" style="23" min="1" max="1"/>
+    <col width="18" bestFit="1" customWidth="1" style="52" min="2" max="2"/>
+    <col width="18.6640625" customWidth="1" style="52" min="3" max="3"/>
+    <col width="20.109375" bestFit="1" customWidth="1" style="152" min="4" max="4"/>
+    <col width="15.109375" bestFit="1" customWidth="1" style="153" min="5" max="5"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="154" min="6" max="6"/>
+    <col width="16.5546875" bestFit="1" customWidth="1" style="154" min="7" max="7"/>
+    <col width="20.33203125" bestFit="1" customWidth="1" style="155" min="8" max="8"/>
+    <col width="24" bestFit="1" customWidth="1" style="27" min="9" max="9"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="27" min="10" max="12"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="27" min="13" max="14"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" style="27" min="15" max="15"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="27" min="16" max="18"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="27" min="19" max="20"/>
+    <col width="15.109375" bestFit="1" customWidth="1" style="27" min="21" max="21"/>
+    <col width="19.44140625" bestFit="1" customWidth="1" style="27" min="22" max="22"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="27" min="23" max="23"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="220" min="24" max="25"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="220" min="26" max="26"/>
+    <col width="26.109375" bestFit="1" customWidth="1" style="220" min="27" max="27"/>
+    <col width="21.5546875" bestFit="1" customWidth="1" style="220" min="28" max="28"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="157" min="29" max="29"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="220" min="30" max="31"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="220" min="32" max="33"/>
+    <col width="18" bestFit="1" customWidth="1" style="220" min="34" max="34"/>
+    <col width="13.109375" bestFit="1" customWidth="1" style="154" min="35" max="35"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="154" min="36" max="36"/>
+    <col width="23.109375" bestFit="1" customWidth="1" style="221" min="37" max="37"/>
+    <col width="15.6640625" bestFit="1" customWidth="1" style="32" min="38" max="38"/>
+    <col width="23.109375" bestFit="1" customWidth="1" style="27" min="39" max="39"/>
+    <col width="27" bestFit="1" customWidth="1" style="27" min="40" max="40"/>
+    <col width="16.109375" bestFit="1" customWidth="1" style="27" min="41" max="41"/>
+    <col width="22.5546875" customWidth="1" style="27" min="42" max="42"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="27" min="43" max="43"/>
+    <col width="17.44140625" customWidth="1" style="3" min="44" max="44"/>
+    <col width="14.5546875" customWidth="1" style="1" min="45" max="45"/>
+    <col hidden="1" width="12" customWidth="1" style="15" min="46" max="46"/>
+    <col hidden="1" width="13" customWidth="1" style="15" min="47" max="47"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="285" t="inlineStr">
+    <row r="1" ht="16.2" customHeight="1" s="15" thickBot="1">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Weekending</t>
         </is>
       </c>
-      <c r="C1" s="287" t="n">
-        <v>45613</v>
-      </c>
-      <c r="D1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="285" t="n">
-        <v>0.7057943831494483</v>
-      </c>
-      <c r="I1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="L1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="M1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
-      <c r="N1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 13</t>
-        </is>
-      </c>
-      <c r="O1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 14</t>
-        </is>
-      </c>
-      <c r="P1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 15</t>
-        </is>
-      </c>
-      <c r="Q1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 16</t>
-        </is>
-      </c>
-      <c r="R1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 17</t>
-        </is>
-      </c>
-      <c r="S1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 18</t>
-        </is>
-      </c>
-      <c r="T1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 19</t>
-        </is>
-      </c>
-      <c r="U1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 20</t>
-        </is>
-      </c>
-      <c r="V1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 21</t>
-        </is>
-      </c>
-      <c r="W1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 22</t>
-        </is>
-      </c>
-      <c r="X1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 23</t>
-        </is>
-      </c>
-      <c r="Y1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 24</t>
-        </is>
-      </c>
-      <c r="Z1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 25</t>
-        </is>
-      </c>
-      <c r="AA1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 26</t>
-        </is>
-      </c>
-      <c r="AB1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 27</t>
-        </is>
-      </c>
-      <c r="AC1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 28</t>
-        </is>
-      </c>
-      <c r="AD1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 29</t>
-        </is>
-      </c>
-      <c r="AE1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 30</t>
-        </is>
-      </c>
-      <c r="AF1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 31</t>
-        </is>
-      </c>
-      <c r="AG1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 32</t>
-        </is>
-      </c>
-      <c r="AH1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 33</t>
-        </is>
-      </c>
-      <c r="AI1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 34</t>
-        </is>
-      </c>
-      <c r="AJ1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 35</t>
-        </is>
-      </c>
-      <c r="AK1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 36</t>
-        </is>
-      </c>
-      <c r="AL1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 37</t>
-        </is>
-      </c>
-      <c r="AM1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 38</t>
-        </is>
-      </c>
-      <c r="AN1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 39</t>
-        </is>
-      </c>
-      <c r="AO1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 40</t>
-        </is>
-      </c>
-      <c r="AP1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 41</t>
-        </is>
-      </c>
-      <c r="AQ1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 42</t>
-        </is>
-      </c>
-      <c r="AR1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 43</t>
-        </is>
-      </c>
-      <c r="AS1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 44</t>
-        </is>
-      </c>
-      <c r="AT1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 45</t>
-        </is>
-      </c>
-      <c r="AU1" s="285" t="inlineStr">
-        <is>
-          <t>Unnamed: 46</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="C1" s="25" t="n">
+        <v>45438</v>
+      </c>
+      <c r="D1" s="26" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="X1" s="27" t="n"/>
+      <c r="Y1" s="27" t="n"/>
+      <c r="Z1" s="27" t="n"/>
+      <c r="AA1" s="27" t="n"/>
+      <c r="AB1" s="27" t="n"/>
+      <c r="AC1" s="27" t="n"/>
+      <c r="AD1" s="27" t="n"/>
+      <c r="AE1" s="27" t="n"/>
+      <c r="AF1" s="27" t="n"/>
+      <c r="AG1" s="27" t="n"/>
+      <c r="AH1" s="27" t="n"/>
+      <c r="AI1" s="27" t="n"/>
+      <c r="AJ1" s="27" t="n"/>
+      <c r="AK1" s="28" t="n"/>
+      <c r="AL1" s="29" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="23.4" customHeight="1" s="15">
+      <c r="B2" s="30" t="inlineStr">
         <is>
           <t>TeamNumber</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="31" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>3093</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="26" t="n"/>
+      <c r="E2" s="222" t="inlineStr">
         <is>
           <t>Result MC</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="F2" s="223" t="n"/>
+      <c r="G2" s="223" t="n"/>
+      <c r="H2" s="223" t="n"/>
+      <c r="I2" s="223" t="n"/>
+      <c r="J2" s="223" t="n"/>
+      <c r="K2" s="223" t="n"/>
+      <c r="L2" s="223" t="n"/>
+      <c r="M2" s="223" t="n"/>
+      <c r="N2" s="223" t="n"/>
+      <c r="O2" s="223" t="n"/>
+      <c r="P2" s="223" t="n"/>
+      <c r="Q2" s="224" t="n"/>
+      <c r="X2" s="27" t="n"/>
+      <c r="Y2" s="27" t="n"/>
+      <c r="Z2" s="27" t="n"/>
+      <c r="AA2" s="27" t="n"/>
+      <c r="AB2" s="27" t="n"/>
+      <c r="AC2" s="27" t="n"/>
+      <c r="AD2" s="27" t="n"/>
+      <c r="AE2" s="27" t="n"/>
+      <c r="AF2" s="27" t="n"/>
+      <c r="AG2" s="27" t="n"/>
+      <c r="AH2" s="27" t="n"/>
+      <c r="AI2" s="27" t="n"/>
+      <c r="AJ2" s="27" t="n"/>
+      <c r="AK2" s="27" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="15">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>MC Name</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="34" t="inlineStr">
         <is>
-          <t>DLG Corporation</t>
+          <t>Revival</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="D3" s="35" t="n"/>
+      <c r="E3" s="36" t="n"/>
+      <c r="F3" s="37" t="n"/>
+      <c r="G3" s="38" t="inlineStr">
         <is>
           <t>Numbers</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>Fees</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" s="38" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="225" t="inlineStr">
         <is>
           <t>Challenge(s)</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
+      <c r="L3" s="226" t="n"/>
+      <c r="M3" s="227" t="n"/>
+      <c r="N3" s="228" t="inlineStr">
         <is>
           <t>Value Challenge(s)</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="O3" s="226" t="n"/>
+      <c r="P3" s="226" t="n"/>
+      <c r="Q3" s="229" t="n"/>
+      <c r="X3" s="27" t="n"/>
+      <c r="Y3" s="27" t="n"/>
+      <c r="Z3" s="27" t="n"/>
+      <c r="AA3" s="27" t="n"/>
+      <c r="AB3" s="27" t="n"/>
+      <c r="AC3" s="27" t="n"/>
+      <c r="AD3" s="27" t="n"/>
+      <c r="AE3" s="27" t="n"/>
+      <c r="AF3" s="27" t="n"/>
+      <c r="AG3" s="27" t="n"/>
+      <c r="AH3" s="27" t="n"/>
+      <c r="AI3" s="27" t="n"/>
+      <c r="AJ3" s="27" t="n"/>
+      <c r="AK3" s="27" t="n"/>
+    </row>
+    <row r="4" ht="15.6" customHeight="1" s="15">
+      <c r="B4" s="30" t="inlineStr">
         <is>
           <t>Campaign Type</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
-          <t>Fundraising</t>
+          <t>Commercial</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="35" t="n"/>
+      <c r="E4" s="200" t="inlineStr">
         <is>
-          <t>Sales - TOTAL</t>
+          <t>Box 1 - TOTAL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="F4" s="230" t="n"/>
+      <c r="G4" s="41" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" s="231" t="n">
+        <v>47</v>
+      </c>
+      <c r="I4" s="231" t="n">
+        <v>1645</v>
+      </c>
+      <c r="J4" s="189" t="n"/>
+      <c r="K4" s="210" t="n"/>
+      <c r="L4" s="232" t="n"/>
+      <c r="M4" s="232" t="n"/>
+      <c r="N4" s="233" t="n"/>
+      <c r="Q4" s="234" t="n"/>
+      <c r="X4" s="27" t="n"/>
+      <c r="Y4" s="27" t="n"/>
+      <c r="Z4" s="27" t="n"/>
+      <c r="AA4" s="27" t="n"/>
+      <c r="AB4" s="27" t="n"/>
+      <c r="AC4" s="27" t="n"/>
+      <c r="AD4" s="27" t="n"/>
+      <c r="AE4" s="27" t="n"/>
+      <c r="AF4" s="27" t="n"/>
+      <c r="AG4" s="27" t="n"/>
+      <c r="AH4" s="27" t="n"/>
+      <c r="AI4" s="27" t="n"/>
+      <c r="AJ4" s="27" t="n"/>
+      <c r="AK4" s="27" t="n"/>
+    </row>
+    <row r="5" ht="15.6" customHeight="1" s="15">
+      <c r="B5" s="43" t="inlineStr">
         <is>
           <t>Campaign Name</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="44" t="inlineStr">
         <is>
-          <t>Croix-Rouge</t>
+          <t>Quitoque</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="35" t="n"/>
+      <c r="E5" s="198" t="inlineStr">
         <is>
-          <t>Sales - Fail</t>
+          <t>Box 2 - TOTAL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="F5" s="235" t="n"/>
+      <c r="G5" s="45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" s="236" t="n">
+        <v>47</v>
+      </c>
+      <c r="I5" s="236" t="n">
+        <v>1410</v>
+      </c>
+      <c r="J5" s="189" t="n"/>
+      <c r="K5" s="189" t="inlineStr">
         <is>
-          <t>Sales - Submission</t>
+          <t>Bonus MC MAB 4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="N5" s="233" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="Q5" s="234" t="n"/>
+      <c r="X5" s="27" t="n"/>
+      <c r="Y5" s="27" t="n"/>
+      <c r="Z5" s="27" t="n"/>
+      <c r="AA5" s="27" t="n"/>
+      <c r="AB5" s="27" t="n"/>
+      <c r="AC5" s="27" t="n"/>
+      <c r="AD5" s="27" t="n"/>
+      <c r="AE5" s="27" t="n"/>
+      <c r="AF5" s="27" t="n"/>
+      <c r="AG5" s="27" t="n"/>
+      <c r="AH5" s="27" t="n"/>
+      <c r="AI5" s="27" t="n"/>
+      <c r="AJ5" s="27" t="n"/>
+      <c r="AK5" s="27" t="n"/>
+    </row>
+    <row r="6" ht="15.6" customHeight="1" s="15">
+      <c r="B6" s="47" t="n"/>
+      <c r="C6" s="48" t="n"/>
+      <c r="D6" s="35" t="n"/>
+      <c r="E6" s="200" t="inlineStr">
         <is>
-          <t>Quality Return Balance</t>
+          <t>Box 1 - FAIL</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>-0.2942056168505517</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="F6" s="230" t="n"/>
+      <c r="G6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="237" t="n">
+        <v>47</v>
+      </c>
+      <c r="I6" s="237" t="n">
+        <v>47</v>
+      </c>
+      <c r="J6" s="189" t="n"/>
+      <c r="K6" s="189" t="n"/>
+      <c r="N6" s="233" t="n"/>
+      <c r="Q6" s="234" t="n"/>
+      <c r="X6" s="27" t="n"/>
+      <c r="Y6" s="27" t="n"/>
+      <c r="Z6" s="27" t="n"/>
+      <c r="AA6" s="27" t="n"/>
+      <c r="AB6" s="27" t="n"/>
+      <c r="AC6" s="27" t="n"/>
+      <c r="AD6" s="27" t="n"/>
+      <c r="AE6" s="27" t="n"/>
+      <c r="AF6" s="27" t="n"/>
+      <c r="AG6" s="27" t="n"/>
+      <c r="AH6" s="27" t="n"/>
+      <c r="AI6" s="27" t="n"/>
+      <c r="AJ6" s="27" t="n"/>
+      <c r="AK6" s="27" t="n"/>
+    </row>
+    <row r="7" ht="15.6" customHeight="1" s="15">
+      <c r="B7" s="51" t="n"/>
+      <c r="D7" s="35" t="n"/>
+      <c r="E7" s="198" t="inlineStr">
         <is>
-          <t>Quality Return MC</t>
+          <t>Box 2 - FAIL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="F7" s="235" t="n"/>
+      <c r="G7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="236" t="n">
+        <v>47</v>
+      </c>
+      <c r="I7" s="236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="189" t="n"/>
+      <c r="K7" s="189" t="n"/>
+      <c r="N7" s="233" t="n"/>
+      <c r="Q7" s="234" t="n"/>
+      <c r="X7" s="27" t="n"/>
+      <c r="Y7" s="27" t="n"/>
+      <c r="Z7" s="27" t="n"/>
+      <c r="AA7" s="27" t="n"/>
+      <c r="AB7" s="27" t="n"/>
+      <c r="AC7" s="27" t="n"/>
+      <c r="AD7" s="27" t="n"/>
+      <c r="AE7" s="27" t="n"/>
+      <c r="AF7" s="27" t="n"/>
+      <c r="AG7" s="27" t="n"/>
+      <c r="AH7" s="27" t="n"/>
+      <c r="AI7" s="27" t="n"/>
+      <c r="AJ7" s="27" t="n"/>
+      <c r="AK7" s="27" t="n"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" s="15">
+      <c r="B8" s="53" t="n"/>
+      <c r="C8" s="54" t="n"/>
+      <c r="D8" s="55" t="n"/>
+      <c r="E8" s="200" t="inlineStr">
         <is>
-          <t>Total movement quality balance</t>
+          <t>Box 1 - SUBMISSION</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-8073</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="F8" s="230" t="n"/>
+      <c r="G8" s="49" t="n">
+        <v>34</v>
+      </c>
+      <c r="H8" s="237" t="n">
+        <v>47</v>
+      </c>
+      <c r="I8" s="237" t="n">
+        <v>1598</v>
+      </c>
+      <c r="J8" s="189" t="n"/>
+      <c r="K8" s="189" t="n"/>
+      <c r="N8" s="233" t="n"/>
+      <c r="Q8" s="234" t="n"/>
+      <c r="X8" s="27" t="n"/>
+      <c r="Y8" s="27" t="n"/>
+      <c r="Z8" s="27" t="n"/>
+      <c r="AA8" s="27" t="n"/>
+      <c r="AB8" s="27" t="n"/>
+      <c r="AC8" s="27" t="n"/>
+      <c r="AD8" s="27" t="n"/>
+      <c r="AE8" s="27" t="n"/>
+      <c r="AF8" s="27" t="n"/>
+      <c r="AG8" s="27" t="n"/>
+      <c r="AH8" s="27" t="n"/>
+      <c r="AI8" s="27" t="n"/>
+      <c r="AJ8" s="27" t="n"/>
+      <c r="AK8" s="27" t="n"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" s="15">
+      <c r="B9" s="53" t="n"/>
+      <c r="C9" s="54" t="n"/>
+      <c r="D9" s="55" t="n"/>
+      <c r="E9" s="198" t="inlineStr">
+        <is>
+          <t>Box 2 - SUBMISSION</t>
+        </is>
+      </c>
+      <c r="F9" s="235" t="n"/>
+      <c r="G9" s="45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" s="236" t="n">
+        <v>47</v>
+      </c>
+      <c r="I9" s="236" t="n">
+        <v>1410</v>
+      </c>
+      <c r="J9" s="189" t="n"/>
+      <c r="K9" s="189" t="n"/>
+      <c r="N9" s="233" t="n"/>
+      <c r="Q9" s="234" t="n"/>
+      <c r="X9" s="27" t="n"/>
+      <c r="Y9" s="27" t="n"/>
+      <c r="Z9" s="27" t="n"/>
+      <c r="AA9" s="27" t="n"/>
+      <c r="AB9" s="27" t="n"/>
+      <c r="AC9" s="27" t="n"/>
+      <c r="AD9" s="27" t="n"/>
+      <c r="AE9" s="27" t="n"/>
+      <c r="AF9" s="27" t="n"/>
+      <c r="AG9" s="27" t="n"/>
+      <c r="AH9" s="27" t="n"/>
+      <c r="AI9" s="27" t="n"/>
+      <c r="AJ9" s="27" t="n"/>
+      <c r="AK9" s="27" t="n"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" s="15">
+      <c r="B10" s="53" t="n"/>
+      <c r="C10" s="54" t="n"/>
+      <c r="D10" s="55" t="n"/>
+      <c r="E10" s="196" t="n"/>
+      <c r="F10" s="238" t="n"/>
+      <c r="G10" s="239" t="n"/>
+      <c r="H10" s="57" t="n"/>
+      <c r="I10" s="189" t="n"/>
+      <c r="J10" s="189" t="n"/>
+      <c r="K10" s="189" t="n"/>
+      <c r="N10" s="233" t="n"/>
+      <c r="Q10" s="234" t="n"/>
+      <c r="X10" s="27" t="n"/>
+      <c r="Y10" s="27" t="n"/>
+      <c r="Z10" s="27" t="n"/>
+      <c r="AA10" s="27" t="n"/>
+      <c r="AB10" s="27" t="n"/>
+      <c r="AC10" s="27" t="n"/>
+      <c r="AD10" s="27" t="n"/>
+      <c r="AE10" s="27" t="n"/>
+      <c r="AF10" s="27" t="n"/>
+      <c r="AG10" s="27" t="n"/>
+      <c r="AH10" s="27" t="n"/>
+      <c r="AI10" s="27" t="n"/>
+      <c r="AJ10" s="27" t="n"/>
+      <c r="AK10" s="27" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="15">
+      <c r="B11" s="53" t="n"/>
+      <c r="C11" s="58" t="n"/>
+      <c r="D11" s="26" t="n"/>
+      <c r="E11" s="240" t="inlineStr">
+        <is>
+          <t>Bonus box 4</t>
+        </is>
+      </c>
+      <c r="F11" s="241" t="n"/>
+      <c r="G11" s="242" t="n"/>
+      <c r="H11" s="243" t="n"/>
+      <c r="I11" s="244" t="n"/>
+      <c r="J11" s="189" t="n"/>
+      <c r="K11" s="189" t="n"/>
+      <c r="N11" s="233" t="n"/>
+      <c r="Q11" s="234" t="n"/>
+      <c r="X11" s="27" t="n"/>
+      <c r="Y11" s="27" t="n"/>
+      <c r="Z11" s="27" t="n"/>
+      <c r="AA11" s="27" t="n"/>
+      <c r="AB11" s="27" t="n"/>
+      <c r="AC11" s="27" t="n"/>
+      <c r="AD11" s="27" t="n"/>
+      <c r="AE11" s="27" t="n"/>
+      <c r="AF11" s="27" t="n"/>
+      <c r="AG11" s="27" t="n"/>
+      <c r="AH11" s="27" t="n"/>
+      <c r="AI11" s="27" t="n"/>
+      <c r="AJ11" s="27" t="n"/>
+      <c r="AK11" s="27" t="n"/>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="15" thickBot="1">
+      <c r="B12" s="53" t="n"/>
+      <c r="C12" s="58" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="245" t="inlineStr">
         <is>
           <t>Total paid to MC</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="F12" s="246" t="n"/>
+      <c r="G12" s="247" t="n">
+        <v>3203.5</v>
+      </c>
+      <c r="H12" s="248" t="n"/>
+      <c r="I12" s="249" t="n"/>
+      <c r="J12" s="64" t="n"/>
+      <c r="K12" s="65" t="n"/>
+      <c r="L12" s="65" t="n"/>
+      <c r="M12" s="65" t="n"/>
+      <c r="N12" s="250" t="n"/>
+      <c r="O12" s="251" t="n"/>
+      <c r="P12" s="251" t="n"/>
+      <c r="Q12" s="252" t="n"/>
+      <c r="X12" s="27" t="n"/>
+      <c r="Y12" s="27" t="n"/>
+      <c r="Z12" s="27" t="n"/>
+      <c r="AA12" s="27" t="n"/>
+      <c r="AB12" s="27" t="n"/>
+      <c r="AC12" s="27" t="n"/>
+      <c r="AD12" s="27" t="n"/>
+      <c r="AE12" s="27" t="n"/>
+      <c r="AF12" s="27" t="n"/>
+      <c r="AG12" s="27" t="n"/>
+      <c r="AH12" s="27" t="n"/>
+      <c r="AI12" s="27" t="n"/>
+      <c r="AJ12" s="27" t="n"/>
+      <c r="AK12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" s="15">
+      <c r="B13" s="66" t="n"/>
+      <c r="C13" s="67" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="68" t="n"/>
+      <c r="F13" s="69" t="n"/>
+      <c r="G13" s="68" t="n"/>
+      <c r="H13" s="70" t="n"/>
+      <c r="I13" s="71" t="n"/>
+      <c r="J13" s="70" t="n"/>
+      <c r="K13" s="70" t="n"/>
+      <c r="L13" s="70" t="n"/>
+      <c r="M13" s="70" t="n"/>
+      <c r="N13" s="70" t="n"/>
+      <c r="O13" s="70" t="n"/>
+      <c r="P13" s="70" t="n"/>
+      <c r="Q13" s="70" t="n"/>
+      <c r="R13" s="70" t="n"/>
+      <c r="S13" s="70" t="n"/>
+      <c r="T13" s="70" t="n"/>
+      <c r="U13" s="70" t="n"/>
+      <c r="V13" s="70" t="n"/>
+      <c r="W13" s="72" t="n"/>
+      <c r="X13" s="70" t="n"/>
+      <c r="Y13" s="70" t="n"/>
+      <c r="Z13" s="72" t="n"/>
+      <c r="AA13" s="27" t="n"/>
+      <c r="AB13" s="27" t="n"/>
+      <c r="AC13" s="73" t="n"/>
+      <c r="AD13" s="73" t="n"/>
+      <c r="AE13" s="27" t="n"/>
+      <c r="AF13" s="27" t="n"/>
+      <c r="AG13" s="27" t="n"/>
+      <c r="AH13" s="27" t="n"/>
+      <c r="AI13" s="27" t="n"/>
+      <c r="AJ13" s="27" t="n"/>
+      <c r="AK13" s="27" t="n"/>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="15" thickBot="1">
+      <c r="B14" s="74" t="n"/>
+      <c r="C14" s="75" t="n"/>
+      <c r="D14" s="75" t="n"/>
+      <c r="E14" s="75" t="n"/>
+      <c r="F14" s="76" t="n"/>
+      <c r="G14" s="76" t="n"/>
+      <c r="H14" s="76" t="n"/>
+      <c r="I14" s="76" t="n"/>
+      <c r="J14" s="253" t="n"/>
+      <c r="K14" s="75" t="n"/>
+      <c r="L14" s="69" t="n"/>
+      <c r="M14" s="68" t="n"/>
+      <c r="N14" s="68" t="n"/>
+      <c r="O14" s="69" t="n"/>
+      <c r="P14" s="69" t="n"/>
+      <c r="Q14" s="69" t="n"/>
+      <c r="R14" s="69" t="n"/>
+      <c r="S14" s="68" t="n"/>
+      <c r="T14" s="68" t="n"/>
+      <c r="U14" s="69" t="n"/>
+      <c r="V14" s="69" t="n"/>
+      <c r="W14" s="69" t="n"/>
+      <c r="X14" s="69" t="n"/>
+      <c r="Y14" s="68" t="n"/>
+      <c r="Z14" s="69" t="n"/>
+      <c r="AA14" s="69" t="n"/>
+      <c r="AB14" s="69" t="n"/>
+      <c r="AC14" s="68" t="n"/>
+      <c r="AD14" s="68" t="n"/>
+      <c r="AE14" s="68" t="n"/>
+      <c r="AF14" s="68" t="n"/>
+      <c r="AG14" s="68" t="n"/>
+      <c r="AH14" s="27" t="n"/>
+      <c r="AI14" s="70" t="n"/>
+      <c r="AJ14" s="70" t="n"/>
+      <c r="AK14" s="70" t="n"/>
+      <c r="AL14" s="78" t="n"/>
+      <c r="AM14" s="70" t="n"/>
+      <c r="AN14" s="70" t="n"/>
+      <c r="AO14" s="70" t="n"/>
+      <c r="AP14" s="70" t="n"/>
+      <c r="AR14" s="159" t="n"/>
+      <c r="AU14" s="1" t="n"/>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="15" thickBot="1">
+      <c r="B15" s="66" t="n"/>
+      <c r="C15" s="67" t="n"/>
+      <c r="D15" s="74" t="n"/>
+      <c r="E15" s="75" t="n"/>
+      <c r="F15" s="75" t="n"/>
+      <c r="G15" s="75" t="n"/>
+      <c r="H15" s="75" t="n"/>
+      <c r="I15" s="75" t="n"/>
+      <c r="J15" s="254" t="inlineStr">
         <is>
           <t>Total Sales</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="K15" s="255" t="n"/>
+      <c r="L15" s="255" t="n"/>
+      <c r="M15" s="255" t="n"/>
+      <c r="N15" s="256" t="n"/>
+      <c r="O15" s="79" t="n"/>
+      <c r="P15" s="257" t="inlineStr">
         <is>
           <t>Total Failed Forms</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
+      <c r="Q15" s="258" t="n"/>
+      <c r="R15" s="258" t="n"/>
+      <c r="S15" s="258" t="n"/>
+      <c r="T15" s="259" t="n"/>
+      <c r="U15" s="80" t="n"/>
+      <c r="V15" s="81" t="inlineStr">
+        <is>
+          <t>Total Incompletes</t>
+        </is>
+      </c>
+      <c r="W15" s="260" t="inlineStr">
         <is>
           <t>Total Submissions</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
+      <c r="X15" s="258" t="n"/>
+      <c r="Y15" s="258" t="n"/>
+      <c r="Z15" s="258" t="n"/>
+      <c r="AA15" s="258" t="n"/>
+      <c r="AB15" s="261" t="n"/>
+      <c r="AC15" s="262" t="inlineStr">
         <is>
           <t>BA Fees</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>Rejects</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr">
+      <c r="AD15" s="258" t="n"/>
+      <c r="AE15" s="258" t="n"/>
+      <c r="AF15" s="258" t="n"/>
+      <c r="AG15" s="261" t="n"/>
+      <c r="AH15" s="70" t="n"/>
+      <c r="AI15" s="263" t="inlineStr">
         <is>
           <t>Bonus</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr">
+      <c r="AJ15" s="261" t="n"/>
+      <c r="AK15" s="70" t="n"/>
+      <c r="AL15" s="78" t="n"/>
+      <c r="AM15" s="70" t="n"/>
+      <c r="AN15" s="2" t="inlineStr">
         <is>
           <t>Deductions</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>69</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>2723</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>-2723</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="AO15" s="2" t="n"/>
+      <c r="AP15" s="170" t="n"/>
+      <c r="AQ15" s="258" t="n"/>
+      <c r="AR15" s="264" t="n"/>
+      <c r="AS15" s="2" t="n"/>
+      <c r="AU15" s="1" t="n"/>
+    </row>
+    <row r="16" ht="19.5" customFormat="1" customHeight="1" s="4" thickBot="1">
+      <c r="A16" s="82" t="n"/>
+      <c r="B16" s="83" t="n"/>
+      <c r="C16" s="83" t="n"/>
+      <c r="D16" s="83" t="n"/>
+      <c r="E16" s="83" t="n"/>
+      <c r="F16" s="83" t="n"/>
+      <c r="G16" s="83" t="n"/>
+      <c r="H16" s="83" t="n"/>
+      <c r="I16" s="83" t="n"/>
+      <c r="J16" s="84" t="n">
+        <v>35</v>
+      </c>
+      <c r="K16" s="85" t="n">
+        <v>30</v>
+      </c>
+      <c r="L16" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="86" t="n">
+        <v>65</v>
+      </c>
+      <c r="P16" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="91" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" s="92" t="n">
+        <v>34</v>
+      </c>
+      <c r="X16" s="93" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="95" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC16" s="96" t="n"/>
+      <c r="AD16" s="97" t="n"/>
+      <c r="AE16" s="97" t="n"/>
+      <c r="AF16" s="97" t="n"/>
+      <c r="AG16" s="98" t="n"/>
+      <c r="AH16" s="265" t="n">
+        <v>1436</v>
+      </c>
+      <c r="AI16" s="266" t="n">
+        <v>161</v>
+      </c>
+      <c r="AJ16" s="101" t="n"/>
+      <c r="AK16" s="267" t="n">
+        <v>1597</v>
+      </c>
+      <c r="AL16" s="103" t="n"/>
+      <c r="AM16" s="268" t="n">
+        <v>-191.64</v>
+      </c>
+      <c r="AN16" s="269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="106" t="n"/>
+      <c r="AP16" s="107" t="n"/>
+      <c r="AQ16" s="270" t="n">
+        <v>1405.36</v>
+      </c>
+      <c r="AR16" s="160" t="n"/>
+      <c r="AS16" s="161" t="n"/>
+    </row>
+    <row r="17" ht="43.2" customFormat="1" customHeight="1" s="5">
+      <c r="A17" s="109" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="110" t="inlineStr">
         <is>
           <t>TeamNumber</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="111" t="inlineStr">
         <is>
           <t>BANumber</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="112" t="inlineStr">
         <is>
           <t>BAName</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="112" t="inlineStr">
         <is>
           <t>BAStartDate</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="112" t="inlineStr">
         <is>
           <t>BAStatus</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="113" t="inlineStr">
         <is>
           <t>Statut Commission</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="114" t="inlineStr">
         <is>
           <t>Total Sales since BA Start Date</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="115" t="inlineStr">
         <is>
           <t>Total Sales since Campaign Start Date</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
-      <c r="L17" t="n">
-        <v>20</v>
-      </c>
-      <c r="M17" t="n">
-        <v>25</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="J17" s="271" t="inlineStr">
+        <is>
+          <t>Box 1</t>
+        </is>
+      </c>
+      <c r="K17" s="271" t="inlineStr">
+        <is>
+          <t>Box 2</t>
+        </is>
+      </c>
+      <c r="L17" s="271" t="inlineStr">
+        <is>
+          <t>Box 4</t>
+        </is>
+      </c>
+      <c r="M17" s="271" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="N17" s="271" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="O17" s="117" t="inlineStr">
         <is>
           <t>Total Sales</t>
         </is>
       </c>
-      <c r="O17" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>20</v>
-      </c>
-      <c r="R17" t="n">
-        <v>25</v>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="P17" s="271" t="inlineStr">
+        <is>
+          <t>Box 1</t>
+        </is>
+      </c>
+      <c r="Q17" s="271" t="inlineStr">
+        <is>
+          <t>Box 2</t>
+        </is>
+      </c>
+      <c r="R17" s="271" t="inlineStr">
+        <is>
+          <t>Box 4</t>
+        </is>
+      </c>
+      <c r="S17" s="271" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="T17" s="271" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="U17" s="118" t="inlineStr">
         <is>
           <t>Total Fails</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>10</v>
-      </c>
-      <c r="U17" t="n">
-        <v>15</v>
-      </c>
-      <c r="V17" t="n">
-        <v>20</v>
-      </c>
-      <c r="W17" t="n">
-        <v>25</v>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="V17" s="119" t="inlineStr">
+        <is>
+          <t>Box Incomplete</t>
+        </is>
+      </c>
+      <c r="W17" s="271" t="inlineStr">
+        <is>
+          <t>Box 1</t>
+        </is>
+      </c>
+      <c r="X17" s="271" t="inlineStr">
+        <is>
+          <t>Box 2</t>
+        </is>
+      </c>
+      <c r="Y17" s="271" t="inlineStr">
+        <is>
+          <t>Box 4</t>
+        </is>
+      </c>
+      <c r="Z17" s="271" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="AA17" s="271" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="AB17" s="120" t="inlineStr">
         <is>
           <t>Total Submissions</t>
         </is>
       </c>
-      <c r="Y17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" s="272" t="inlineStr">
+        <is>
+          <t>Box 1</t>
+        </is>
+      </c>
+      <c r="AD17" s="272" t="inlineStr">
+        <is>
+          <t>Box 2</t>
+        </is>
+      </c>
+      <c r="AE17" s="272" t="inlineStr">
+        <is>
+          <t>Box 4</t>
+        </is>
+      </c>
+      <c r="AF17" s="272" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="AG17" s="272" t="inlineStr">
+        <is>
+          <t>Si condition particulière</t>
+        </is>
+      </c>
+      <c r="AH17" s="114" t="inlineStr">
         <is>
           <t>Total BA Fees</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>Prepayment Percentage</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>Prepayment Amount</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>Amount add to bond</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>Sales rejected</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Reject value sales</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Quality balance return</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>Total quality balance movement</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AI17" s="122" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AJ17" s="123" t="inlineStr">
         <is>
           <t>Comment 1
 REQUIRED</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AK17" s="114" t="inlineStr">
         <is>
           <t>Amount For Social Security Calculation</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AL17" s="124" t="inlineStr">
         <is>
           <t>Social Security percentage</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AM17" s="114" t="inlineStr">
         <is>
           <t>Amount Social Security Deductions</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AN17" s="125" t="inlineStr">
         <is>
           <t>Amount
 (to be set in negative)</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AO17" s="125" t="inlineStr">
         <is>
           <t>Comment 1
 REQUIRED</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AP17" s="125" t="inlineStr">
         <is>
           <t>Comment 2
 to be completed if Comment 1 = 'Other'.</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AQ17" s="273" t="inlineStr">
         <is>
           <t>Total Payment</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AR17" s="162" t="inlineStr">
         <is>
           <t>Formule Commentaire</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
+      <c r="AS17" s="163" t="inlineStr">
         <is>
-          <t>Pour Fees</t>
+          <t>Palier pour Fees</t>
         </is>
       </c>
+      <c r="AT17" s="164" t="n"/>
+      <c r="AU17" s="165" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="127" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>3093</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="128" t="inlineStr">
         <is>
-          <t>29827</t>
+          <t>30593</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="D18" s="129" t="inlineStr">
+        <is>
+          <t>myriam BOCHE</t>
+        </is>
+      </c>
+      <c r="E18" s="130" t="inlineStr">
+        <is>
+          <t>21/02/2024</t>
+        </is>
+      </c>
+      <c r="F18" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G18" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H18" s="133" t="n">
+        <v>57</v>
+      </c>
+      <c r="I18" s="134" t="n">
+        <v>57</v>
+      </c>
+      <c r="J18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="136" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD18" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE18" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="277" t="n">
+        <v>56</v>
+      </c>
+      <c r="AI18" s="278" t="n"/>
+      <c r="AJ18" s="146" t="n"/>
+      <c r="AK18" s="279" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL18" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM18" s="239" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="AN18" s="278" t="n"/>
+      <c r="AO18" s="149" t="n"/>
+      <c r="AP18" s="150" t="n"/>
+      <c r="AQ18" s="280" t="n">
+        <v>49.28</v>
+      </c>
+      <c r="AR18" s="166" t="n"/>
+      <c r="AS18" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C19" s="128" t="inlineStr">
+        <is>
+          <t>29263</t>
+        </is>
+      </c>
+      <c r="D19" s="129" t="inlineStr">
+        <is>
+          <t>Sory Aziz Toure</t>
+        </is>
+      </c>
+      <c r="E19" s="130" t="inlineStr">
+        <is>
+          <t>06/09/2023</t>
+        </is>
+      </c>
+      <c r="F19" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G19" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H19" s="133" t="n">
+        <v>109</v>
+      </c>
+      <c r="I19" s="134" t="n">
+        <v>109</v>
+      </c>
+      <c r="J19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD19" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE19" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="277" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI19" s="278" t="n"/>
+      <c r="AJ19" s="146" t="n"/>
+      <c r="AK19" s="279" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL19" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM19" s="239" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="AN19" s="278" t="n"/>
+      <c r="AO19" s="149" t="n"/>
+      <c r="AP19" s="150" t="n"/>
+      <c r="AQ19" s="280" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="AR19" s="166" t="n"/>
+      <c r="AS19" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C20" s="128" t="inlineStr">
+        <is>
+          <t>29262</t>
+        </is>
+      </c>
+      <c r="D20" s="129" t="inlineStr">
+        <is>
+          <t>Anthony Vaquet</t>
+        </is>
+      </c>
+      <c r="E20" s="130" t="inlineStr">
+        <is>
+          <t>15/11/2021</t>
+        </is>
+      </c>
+      <c r="F20" s="131" t="inlineStr">
+        <is>
+          <t>Non-Current</t>
+        </is>
+      </c>
+      <c r="G20" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H20" s="133" t="n">
+        <v>190</v>
+      </c>
+      <c r="I20" s="134" t="n">
+        <v>190</v>
+      </c>
+      <c r="J20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="135" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE20" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="277" t="n">
+        <v>84</v>
+      </c>
+      <c r="AI20" s="278" t="n"/>
+      <c r="AJ20" s="146" t="n"/>
+      <c r="AK20" s="279" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL20" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM20" s="239" t="n">
+        <v>-10.08</v>
+      </c>
+      <c r="AN20" s="278" t="n"/>
+      <c r="AO20" s="149" t="n"/>
+      <c r="AP20" s="150" t="n"/>
+      <c r="AQ20" s="280" t="n">
+        <v>73.92</v>
+      </c>
+      <c r="AR20" s="166" t="n"/>
+      <c r="AS20" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C21" s="128" t="inlineStr">
+        <is>
+          <t>29260</t>
+        </is>
+      </c>
+      <c r="D21" s="129" t="inlineStr">
+        <is>
+          <t>Augustin Bernus</t>
+        </is>
+      </c>
+      <c r="E21" s="130" t="inlineStr">
+        <is>
+          <t>23/11/2023</t>
+        </is>
+      </c>
+      <c r="F21" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G21" s="132" t="inlineStr">
+        <is>
+          <t>OWNER</t>
+        </is>
+      </c>
+      <c r="H21" s="133" t="n">
+        <v>73</v>
+      </c>
+      <c r="I21" s="134" t="n">
+        <v>73</v>
+      </c>
+      <c r="J21" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="139" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="278" t="n"/>
+      <c r="AJ21" s="146" t="n"/>
+      <c r="AK21" s="279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM21" s="239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="278" t="n"/>
+      <c r="AO21" s="149" t="n"/>
+      <c r="AP21" s="150" t="n"/>
+      <c r="AQ21" s="280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="166" t="n"/>
+      <c r="AS21" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C22" s="128" t="inlineStr">
+        <is>
+          <t>29251</t>
+        </is>
+      </c>
+      <c r="D22" s="129" t="inlineStr">
+        <is>
+          <t>Koumba Doucoure</t>
+        </is>
+      </c>
+      <c r="E22" s="130" t="inlineStr">
+        <is>
+          <t>27/06/2023</t>
+        </is>
+      </c>
+      <c r="F22" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G22" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H22" s="133" t="n">
+        <v>71</v>
+      </c>
+      <c r="I22" s="134" t="n">
+        <v>71</v>
+      </c>
+      <c r="J22" s="135" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="136" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="138" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" s="139" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD22" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE22" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="277" t="n">
+        <v>136</v>
+      </c>
+      <c r="AI22" s="278" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ22" s="146" t="inlineStr">
+        <is>
+          <t>Bonus BA MAB4</t>
+        </is>
+      </c>
+      <c r="AK22" s="279" t="n">
+        <v>178</v>
+      </c>
+      <c r="AL22" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM22" s="239" t="n">
+        <v>-21.36</v>
+      </c>
+      <c r="AN22" s="278" t="n"/>
+      <c r="AO22" s="149" t="n"/>
+      <c r="AP22" s="150" t="n"/>
+      <c r="AQ22" s="280" t="n">
+        <v>156.64</v>
+      </c>
+      <c r="AR22" s="166" t="n"/>
+      <c r="AS22" s="167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C23" s="128" t="inlineStr">
+        <is>
+          <t>30759</t>
+        </is>
+      </c>
+      <c r="D23" s="129" t="inlineStr">
+        <is>
+          <t>Sidney RANJATTAN</t>
+        </is>
+      </c>
+      <c r="E23" s="130" t="inlineStr">
+        <is>
+          <t>21/02/2024</t>
+        </is>
+      </c>
+      <c r="F23" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G23" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H23" s="133" t="n">
+        <v>26</v>
+      </c>
+      <c r="I23" s="134" t="n">
+        <v>26</v>
+      </c>
+      <c r="J23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD23" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE23" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="277" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI23" s="278" t="n"/>
+      <c r="AJ23" s="146" t="n"/>
+      <c r="AK23" s="279" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL23" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM23" s="239" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="AN23" s="278" t="n"/>
+      <c r="AO23" s="149" t="n"/>
+      <c r="AP23" s="150" t="n"/>
+      <c r="AQ23" s="280" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="AR23" s="166" t="n"/>
+      <c r="AS23" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C24" s="128" t="inlineStr">
+        <is>
+          <t>31692</t>
+        </is>
+      </c>
+      <c r="D24" s="129" t="inlineStr">
+        <is>
+          <t>Mounsef Doumbia</t>
+        </is>
+      </c>
+      <c r="E24" s="130" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="F24" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G24" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H24" s="133" t="n">
+        <v>28</v>
+      </c>
+      <c r="I24" s="134" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" s="135" t="n">
+        <v>7</v>
+      </c>
+      <c r="K24" s="135" t="n">
+        <v>9</v>
+      </c>
+      <c r="L24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="136" t="n">
+        <v>16</v>
+      </c>
+      <c r="P24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="139" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" s="135" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="140" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD24" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE24" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="277" t="n">
+        <v>378</v>
+      </c>
+      <c r="AI24" s="278" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ24" s="146" t="inlineStr">
+        <is>
+          <t>Bonus BA MAB4</t>
+        </is>
+      </c>
+      <c r="AK24" s="279" t="n">
+        <v>420</v>
+      </c>
+      <c r="AL24" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM24" s="239" t="n">
+        <v>-50.4</v>
+      </c>
+      <c r="AN24" s="278" t="n"/>
+      <c r="AO24" s="149" t="n"/>
+      <c r="AP24" s="150" t="n"/>
+      <c r="AQ24" s="280" t="n">
+        <v>369.6</v>
+      </c>
+      <c r="AR24" s="166" t="n"/>
+      <c r="AS24" s="167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C25" s="128" t="inlineStr">
+        <is>
+          <t>29267</t>
+        </is>
+      </c>
+      <c r="D25" s="129" t="inlineStr">
+        <is>
+          <t>Mohamed Sakho</t>
+        </is>
+      </c>
+      <c r="E25" s="130" t="inlineStr">
+        <is>
+          <t>29/11/2021</t>
+        </is>
+      </c>
+      <c r="F25" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G25" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR1</t>
+        </is>
+      </c>
+      <c r="H25" s="133" t="n">
+        <v>208</v>
+      </c>
+      <c r="I25" s="134" t="n">
+        <v>208</v>
+      </c>
+      <c r="J25" s="135" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" s="135" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="136" t="n">
+        <v>15</v>
+      </c>
+      <c r="P25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="139" t="n">
+        <v>12</v>
+      </c>
+      <c r="X25" s="135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="274" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD25" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="277" t="n">
+        <v>348</v>
+      </c>
+      <c r="AI25" s="278" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ25" s="146" t="inlineStr">
+        <is>
+          <t>Bonus BA MAB4</t>
+        </is>
+      </c>
+      <c r="AK25" s="279" t="n">
+        <v>390</v>
+      </c>
+      <c r="AL25" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM25" s="239" t="n">
+        <v>-46.8</v>
+      </c>
+      <c r="AN25" s="278" t="n"/>
+      <c r="AO25" s="149" t="n"/>
+      <c r="AP25" s="150" t="n"/>
+      <c r="AQ25" s="280" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="AR25" s="166" t="n"/>
+      <c r="AS25" s="167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="23" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C26" s="128" t="inlineStr">
+        <is>
+          <t>30588</t>
+        </is>
+      </c>
+      <c r="D26" s="129" t="inlineStr">
+        <is>
+          <t>Flavien CHALOT</t>
+        </is>
+      </c>
+      <c r="E26" s="130" t="inlineStr">
+        <is>
+          <t>21/02/2024</t>
+        </is>
+      </c>
+      <c r="F26" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G26" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H26" s="133" t="n">
+        <v>34</v>
+      </c>
+      <c r="I26" s="134" t="n">
+        <v>34</v>
+      </c>
+      <c r="J26" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="136" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="139" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD26" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE26" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="277" t="n">
+        <v>64</v>
+      </c>
+      <c r="AI26" s="278" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ26" s="146" t="inlineStr">
+        <is>
+          <t>Bonus BA MAB4</t>
+        </is>
+      </c>
+      <c r="AK26" s="279" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL26" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM26" s="239" t="n">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="AN26" s="278" t="n"/>
+      <c r="AO26" s="149" t="n"/>
+      <c r="AP26" s="150" t="n"/>
+      <c r="AQ26" s="280" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="AR26" s="166" t="n"/>
+      <c r="AS26" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C27" s="128" t="inlineStr">
+        <is>
+          <t>29266</t>
+        </is>
+      </c>
+      <c r="D27" s="129" t="inlineStr">
+        <is>
+          <t>Daveed DAVIGNY</t>
+        </is>
+      </c>
+      <c r="E27" s="130" t="inlineStr">
+        <is>
+          <t>18/01/2023</t>
+        </is>
+      </c>
+      <c r="F27" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G27" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H27" s="133" t="n">
+        <v>89</v>
+      </c>
+      <c r="I27" s="134" t="n">
+        <v>89</v>
+      </c>
+      <c r="J27" s="135" t="n">
         <v>4</v>
       </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="K27" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="136" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="137" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="139" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD27" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE27" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="277" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI27" s="278" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ27" s="146" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>Bonus BA MAB4</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="AK27" s="279" t="n">
+        <v>124</v>
+      </c>
+      <c r="AL27" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM27" s="239" t="n">
+        <v>-14.88</v>
+      </c>
+      <c r="AN27" s="278" t="n"/>
+      <c r="AO27" s="149" t="n"/>
+      <c r="AP27" s="150" t="n"/>
+      <c r="AQ27" s="280" t="n">
+        <v>109.12</v>
+      </c>
+      <c r="AR27" s="166" t="n"/>
+      <c r="AS27" s="167" t="inlineStr">
         <is>
-          <t>30311</t>
+          <t>1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>650</v>
-      </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="n">
-        <v>-650</v>
-      </c>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="AU27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="127" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>3093</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C28" s="128" t="inlineStr">
         <is>
-          <t>30840</t>
+          <t>29248</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="D28" s="129" t="inlineStr">
+        <is>
+          <t>Yvan Bayoro</t>
+        </is>
+      </c>
+      <c r="E28" s="130" t="inlineStr">
+        <is>
+          <t>08/04/2022</t>
+        </is>
+      </c>
+      <c r="F28" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G28" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H28" s="133" t="n">
+        <v>151</v>
+      </c>
+      <c r="I28" s="134" t="n">
+        <v>151</v>
+      </c>
+      <c r="J28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="135" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="135" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD28" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE28" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="277" t="n">
+        <v>112</v>
+      </c>
+      <c r="AI28" s="278" t="n"/>
+      <c r="AJ28" s="146" t="n"/>
+      <c r="AK28" s="279" t="n">
+        <v>112</v>
+      </c>
+      <c r="AL28" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM28" s="239" t="n">
+        <v>-13.44</v>
+      </c>
+      <c r="AN28" s="278" t="n"/>
+      <c r="AO28" s="149" t="n"/>
+      <c r="AP28" s="150" t="n"/>
+      <c r="AQ28" s="280" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="AR28" s="166" t="n"/>
+      <c r="AS28" s="167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="23" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="127" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="C29" s="128" t="inlineStr">
+        <is>
+          <t>30212</t>
+        </is>
+      </c>
+      <c r="D29" s="129" t="inlineStr">
+        <is>
+          <t>NOA Elin</t>
+        </is>
+      </c>
+      <c r="E29" s="130" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="F29" s="131" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="G29" s="132" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="H29" s="133" t="n">
+        <v>56</v>
+      </c>
+      <c r="I29" s="134" t="n">
+        <v>56</v>
+      </c>
+      <c r="J29" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="136" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="138" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" s="139" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="274" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD29" s="275" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE29" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="277" t="n">
+        <v>92</v>
+      </c>
+      <c r="AI29" s="278" t="n">
         <v>7</v>
       </c>
-      <c r="AH20" t="n">
-        <v>315</v>
-      </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="n">
-        <v>-315</v>
-      </c>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="AJ29" s="146" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>Bonus BA MAB4</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="AK29" s="279" t="n">
+        <v>99</v>
+      </c>
+      <c r="AL29" s="148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AM29" s="239" t="n">
+        <v>-11.88</v>
+      </c>
+      <c r="AN29" s="278" t="n"/>
+      <c r="AO29" s="149" t="n"/>
+      <c r="AP29" s="150" t="n"/>
+      <c r="AQ29" s="280" t="n">
+        <v>87.12</v>
+      </c>
+      <c r="AR29" s="166" t="n"/>
+      <c r="AS29" s="167" t="inlineStr">
         <is>
-          <t>31648</t>
+          <t>1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>175</v>
-      </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="n">
-        <v>-175</v>
-      </c>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>32068</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>73</v>
-      </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="n">
-        <v>-73</v>
-      </c>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>32069</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>-85</v>
-      </c>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>32097</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>32545</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="n">
-        <v>-40</v>
-      </c>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>32563</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>193</v>
-      </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="n">
-        <v>-193</v>
-      </c>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>27</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>32667</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>215</v>
-      </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>-215</v>
-      </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>32672</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="n">
-        <v>-130</v>
-      </c>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>32903</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="b">
-        <v>0</v>
-      </c>
+      <c r="AU29" s="1" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>33003</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>-45</v>
-      </c>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="b">
-        <v>0</v>
-      </c>
+      <c r="B30" s="127" t="n"/>
+      <c r="C30" s="128" t="n"/>
+      <c r="D30" s="129" t="n"/>
+      <c r="E30" s="130" t="n"/>
+      <c r="F30" s="131" t="n"/>
+      <c r="G30" s="132" t="n"/>
+      <c r="H30" s="211" t="n"/>
+      <c r="I30" s="212" t="n"/>
+      <c r="J30" s="135" t="n"/>
+      <c r="K30" s="135" t="n"/>
+      <c r="L30" s="135" t="n"/>
+      <c r="M30" s="135" t="n"/>
+      <c r="N30" s="135" t="n"/>
+      <c r="O30" s="136" t="n"/>
+      <c r="P30" s="135" t="n"/>
+      <c r="Q30" s="135" t="n"/>
+      <c r="R30" s="135" t="n"/>
+      <c r="S30" s="135" t="n"/>
+      <c r="T30" s="135" t="n"/>
+      <c r="U30" s="137" t="n"/>
+      <c r="V30" s="138" t="n"/>
+      <c r="W30" s="139" t="n"/>
+      <c r="X30" s="275" t="n"/>
+      <c r="Y30" s="275" t="n"/>
+      <c r="Z30" s="275" t="n"/>
+      <c r="AA30" s="275" t="n"/>
+      <c r="AB30" s="281" t="n"/>
+      <c r="AC30" s="214" t="n"/>
+      <c r="AD30" s="275" t="n"/>
+      <c r="AE30" s="275" t="n"/>
+      <c r="AF30" s="275" t="n"/>
+      <c r="AG30" s="276" t="n"/>
+      <c r="AH30" s="277" t="n"/>
+      <c r="AI30" s="215" t="n"/>
+      <c r="AJ30" s="146" t="n"/>
+      <c r="AK30" s="279" t="n"/>
+      <c r="AL30" s="148" t="n"/>
+      <c r="AM30" s="189" t="n"/>
+      <c r="AN30" s="216" t="n"/>
+      <c r="AO30" s="217" t="n"/>
+      <c r="AP30" s="218" t="n"/>
+      <c r="AQ30" s="219" t="n"/>
+      <c r="AU30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>33150</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="b">
-        <v>0</v>
-      </c>
+      <c r="B31" s="127" t="n"/>
+      <c r="C31" s="128" t="n"/>
+      <c r="D31" s="129" t="n"/>
+      <c r="E31" s="130" t="n"/>
+      <c r="F31" s="131" t="n"/>
+      <c r="G31" s="132" t="n"/>
+      <c r="H31" s="211" t="n"/>
+      <c r="I31" s="212" t="n"/>
+      <c r="J31" s="135" t="n"/>
+      <c r="K31" s="135" t="n"/>
+      <c r="L31" s="135" t="n"/>
+      <c r="M31" s="135" t="n"/>
+      <c r="N31" s="135" t="n"/>
+      <c r="O31" s="136" t="n"/>
+      <c r="P31" s="135" t="n"/>
+      <c r="Q31" s="135" t="n"/>
+      <c r="R31" s="135" t="n"/>
+      <c r="S31" s="135" t="n"/>
+      <c r="T31" s="135" t="n"/>
+      <c r="U31" s="137" t="n"/>
+      <c r="V31" s="138" t="n"/>
+      <c r="W31" s="139" t="n"/>
+      <c r="X31" s="275" t="n"/>
+      <c r="Y31" s="275" t="n"/>
+      <c r="Z31" s="275" t="n"/>
+      <c r="AA31" s="275" t="n"/>
+      <c r="AB31" s="281" t="n"/>
+      <c r="AC31" s="214" t="n"/>
+      <c r="AD31" s="275" t="n"/>
+      <c r="AE31" s="275" t="n"/>
+      <c r="AF31" s="275" t="n"/>
+      <c r="AG31" s="276" t="n"/>
+      <c r="AH31" s="277" t="n"/>
+      <c r="AI31" s="215" t="n"/>
+      <c r="AJ31" s="146" t="n"/>
+      <c r="AK31" s="279" t="n"/>
+      <c r="AL31" s="148" t="n"/>
+      <c r="AM31" s="189" t="n"/>
+      <c r="AN31" s="216" t="n"/>
+      <c r="AO31" s="217" t="n"/>
+      <c r="AP31" s="218" t="n"/>
+      <c r="AQ31" s="219" t="n"/>
+      <c r="AU31" s="1" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>32</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>33272</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="b">
-        <v>0</v>
-      </c>
+      <c r="AU32" s="1" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>33</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>33278</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="b">
-        <v>0</v>
-      </c>
+      <c r="AU33" s="1" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>34</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>33675</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="n">
-        <v>-40</v>
-      </c>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>35</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>33682</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>33683</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>37</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>33687</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>113</v>
-      </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>-113</v>
-      </c>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>38</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>33689</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>39</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>33770</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>-45</v>
-      </c>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>40</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>33867</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="n">
-        <v>-40</v>
-      </c>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>41</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>33871</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>123</v>
-      </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="n">
-        <v>-123</v>
-      </c>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>42</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>33891</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>43</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3095</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>33984</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="b">
-        <v>0</v>
-      </c>
+      <c r="AU34" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="35">
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="K11:M11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AR18:AR29">
+    <cfRule type="expression" priority="136" dxfId="1">
+      <formula>IF(AND($AQ18="Autre",$AR18=""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR18:AS29">
+    <cfRule type="expression" priority="132" dxfId="6">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ18:AJ31">
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>IF(AND(AI18&lt;&gt;"",AJ18=""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP18:AP31">
+    <cfRule type="expression" priority="5" dxfId="1">
+      <formula>IF(AND($AO18="Autre",$AP18=""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN18:AN31">
+    <cfRule type="expression" priority="3" dxfId="1">
+      <formula>IF($AN18&gt;=0.01,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:AQ31">
+    <cfRule type="expression" priority="6" dxfId="2">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO18:AO31">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>IF(AND($AN18&lt;&gt;"",$AO18=""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H31">
+    <cfRule type="cellIs" priority="1" operator="between" dxfId="0">
+      <formula>0</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation sqref="G18:G31" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>"REGULAR,REGULAR1,REGULAR2,REGULAR3,NEW START,OWNER"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
